--- a/config_6.01/item_config.xlsx
+++ b/config_6.01/item_config.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|道具配置'!$A$1:$Q$324</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1014">
   <si>
     <t>id|行号</t>
   </si>
@@ -3409,10 +3412,19 @@
     <t>obj_aqunman_add8</t>
   </si>
   <si>
+    <t>ty_icon_debjc88</t>
+  </si>
+  <si>
+    <t>海王炮台加成卡</t>
+  </si>
+  <si>
     <t>海王炮台加成8%</t>
   </si>
   <si>
     <t>obj_aqunman_add2</t>
+  </si>
+  <si>
+    <t>ty_icon_debjc2</t>
   </si>
   <si>
     <t>海王炮台加成2%</t>
@@ -3424,9 +3436,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -3486,8 +3498,95 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3501,21 +3600,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -3524,30 +3608,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3563,48 +3634,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3613,26 +3645,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="39">
@@ -3692,7 +3704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,7 +3716,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3716,7 +3752,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3728,13 +3770,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3746,25 +3818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3776,13 +3830,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,37 +3860,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3836,31 +3872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3900,11 +3912,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3924,32 +3975,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3968,35 +4009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4005,10 +4017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4017,137 +4029,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4596,10 +4608,10 @@
   <sheetPr/>
   <dimension ref="A1:Q324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E323" sqref="E323"/>
+      <selection pane="bottomLeft" activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15541,22 +15553,61 @@
       <c r="D323" s="10">
         <v>-1</v>
       </c>
+      <c r="E323" s="10">
+        <v>1</v>
+      </c>
+      <c r="F323" s="10" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G323" s="10">
+        <v>0</v>
+      </c>
+      <c r="H323" s="10">
+        <v>1</v>
+      </c>
+      <c r="I323" s="10" t="s">
+        <v>1009</v>
+      </c>
       <c r="J323" s="10" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10">
+      <c r="A324" s="10">
+        <v>323</v>
+      </c>
+      <c r="B324" s="10">
+        <v>323</v>
+      </c>
       <c r="C324" s="10" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D324" s="10">
+        <v>-1</v>
+      </c>
+      <c r="E324" s="10">
+        <v>1</v>
+      </c>
+      <c r="F324" s="10" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G324" s="10">
+        <v>0</v>
+      </c>
+      <c r="H324" s="10">
+        <v>1</v>
+      </c>
+      <c r="I324" s="10" t="s">
         <v>1009</v>
       </c>
-      <c r="D324" s="10">
-        <v>-1</v>
-      </c>
       <c r="J324" s="10" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q324">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
